--- a/Heart_Network_Example.xlsx
+++ b/Heart_Network_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfen801\HeartModelPub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC656706-4ECD-4716-ACD6-A8744EC6BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007134DA-D4CC-4BD4-87FA-C411A998EAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{291EB56F-226D-429D-A172-F5C3E7FA4661}"/>
+    <workbookView xWindow="45630" yWindow="1920" windowWidth="25575" windowHeight="15975" xr2:uid="{291EB56F-226D-429D-A172-F5C3E7FA4661}"/>
   </bookViews>
   <sheets>
     <sheet name="Node" sheetId="1" r:id="rId1"/>
@@ -5980,8 +5980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AB9BFA-8BE4-4E39-9709-06C1134396B7}">
   <dimension ref="A1:AZ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>0.81399999999999995</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E2" s="4">
         <v>2E-3</v>
@@ -6492,8 +6492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646A9FE7-D0DF-448A-B99F-DDD38040D83D}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6634,10 +6634,11 @@
         <v>60</v>
       </c>
       <c r="T2" s="8">
-        <v>37.787828728308803</v>
+        <f>SQRT((R2-P2)^2 + (S2-Q2)^2)</f>
+        <v>30</v>
       </c>
       <c r="U2" s="8">
-        <v>3.7787828728308805E-2</v>
+        <v>3.7787828728308798E-2</v>
       </c>
       <c r="V2" s="8">
         <v>3.7787828728308805E-2</v>
@@ -6702,7 +6703,8 @@
         <v>60</v>
       </c>
       <c r="T3" s="8">
-        <v>37.787828728308803</v>
+        <f>SQRT((R3-P3)^2 + (S3-Q3)^2)</f>
+        <v>30</v>
       </c>
       <c r="U3" s="8">
         <v>3.7787828728308805E-2</v>
